--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749018.142425411</v>
+        <v>3746472.956352124</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7724746.986121997</v>
+        <v>7724746.986121999</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>249.4514547980062</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>57.68157701938528</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849638</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>155.8429996788539</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.160960088363</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.32882004050031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>110.0843945509533</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>346.7225154609746</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>89.14237656965047</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>211.7857997499447</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.3555494301526</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603488</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1253.251950079336</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>884.2894331389239</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>884.2894331389239</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>884.2894331389239</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>877.3439323897204</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>459.3801242879073</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674651</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404537</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143457</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143457</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>669.8647649949339</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>631.9064409481898</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548718</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="V5" t="n">
-        <v>2484.703230155934</v>
+        <v>2134.880026519317</v>
       </c>
       <c r="W5" t="n">
-        <v>2131.93457488582</v>
+        <v>1782.111371249203</v>
       </c>
       <c r="X5" t="n">
-        <v>2131.93457488582</v>
+        <v>1408.645612988123</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1018.506281012312</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641978</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598699</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245978</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245978</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262514</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.5342164887571</v>
+        <v>53.94298182036449</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2366.086203674652</v>
+        <v>981.3140028591426</v>
       </c>
       <c r="C8" t="n">
-        <v>1997.12368673424</v>
+        <v>981.3140028591426</v>
       </c>
       <c r="D8" t="n">
-        <v>1638.85798812749</v>
+        <v>623.0483042523922</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.069735529245</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>842.0838307396377</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4799,55 +4799,55 @@
         <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>325.1460354086932</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>745.2439619368673</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1376.961772920179</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2004.269440980026</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2551.430645747103</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2662.16497099663</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515053</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782764</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527915</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184344</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1741.379601184344</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1367.913842923264</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>1367.913842923264</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.847838830048</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>74.45691162920645</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>403.8853159350163</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>908.2468558011349</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.0527286223531</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C10" t="n">
-        <v>515.0527286223531</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4969,13 +4969,13 @@
         <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>545.0935070360307</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>750.9168718721351</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>925.0117672607339</v>
       </c>
       <c r="P10" t="n">
         <v>1050.459343859349</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>963.8348586639006</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>963.8348586639006</v>
+        <v>846.4373785321147</v>
       </c>
       <c r="T10" t="n">
-        <v>963.8348586639006</v>
+        <v>632.5123282796453</v>
       </c>
       <c r="U10" t="n">
-        <v>963.8348586639006</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V10" t="n">
-        <v>963.8348586639006</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>963.8348586639006</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="X10" t="n">
-        <v>735.8453077658833</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.0527286223531</v>
+        <v>53.94298182036449</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9333885650331</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898437</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463136</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444888</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745236</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360582</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169141996</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>283.6053239261828</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>26.95434640298085</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.22910392194223</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6085800303783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624215</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>705305.786361319</v>
+        <v>705305.7863613191</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055063</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.977382704713819e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481112</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682767</v>
@@ -26436,28 +26436,28 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682663</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682767</v>
-      </c>
       <c r="L4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682695</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340951</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084683</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699184</v>
+        <v>-102759.6913699181</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.1878446263</v>
+        <v>487208.1878446257</v>
       </c>
       <c r="D6" t="n">
-        <v>331404.381750831</v>
+        <v>331404.3817508316</v>
       </c>
       <c r="E6" t="n">
-        <v>-111063.4880658904</v>
+        <v>-111098.2259913262</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.203314916</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.2033149162</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.2033149165</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.984122323</v>
+        <v>483531.246196887</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.2033149158</v>
+        <v>659954.4653894801</v>
       </c>
       <c r="M6" t="n">
-        <v>535780.6926068577</v>
+        <v>535745.9546814221</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.2033149158</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894803</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.732436120978</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26972,17 +26972,17 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450922</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>74.47131796635099</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>167.353528438699</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625111</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>171.909258791281</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361476</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.2558333115945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>271.8459755213084</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>66.19438848496213</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>40.03080509814085</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>11.58710497081398</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.565601406792922e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839184</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.017335757707</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047509</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>424.3413399274486</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>20.72114122105248</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902966</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
